--- a/sprint-1-bd/gufos/modelagem.xlsx
+++ b/sprint-1-bd/gufos/modelagem.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF64D354-8B26-40F8-8A2A-6121ADF9CBA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gufos" sheetId="1" r:id="rId1"/>
     <sheet name="svigufo" sheetId="2" r:id="rId2"/>
-    <sheet name="videos" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>Albuns</t>
   </si>
@@ -170,19 +170,37 @@
     <t>Aluno</t>
   </si>
   <si>
-    <t>aluno@aluno.com</t>
-  </si>
-  <si>
-    <t>Videos</t>
-  </si>
-  <si>
-    <t>Favoritos</t>
+    <t>Ping-Pong</t>
+  </si>
+  <si>
+    <t>Meetup</t>
+  </si>
+  <si>
+    <t>Encontro de ping-pong</t>
+  </si>
+  <si>
+    <t>BD Relacionais</t>
+  </si>
+  <si>
+    <t>Alameda Barão de Limeira, 539</t>
+  </si>
+  <si>
+    <t>Aluno B</t>
+  </si>
+  <si>
+    <t>Aluno A</t>
+  </si>
+  <si>
+    <t>a@aluno.com</t>
+  </si>
+  <si>
+    <t>b@aluno.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,7 +357,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +380,42 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -371,58 +425,25 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -727,15 +748,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="E1" s="16" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="E1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="17"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -806,15 +827,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -886,13 +907,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -946,84 +967,84 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="G24" s="22" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="G24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="24"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="25" t="s">
+      <c r="H25" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
-        <v>1</v>
-      </c>
-      <c r="B26" s="25" t="s">
+      <c r="A26" s="8">
+        <v>1</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="8">
         <v>123456</v>
       </c>
-      <c r="E26" s="25">
-        <v>1</v>
-      </c>
-      <c r="G26" s="25">
-        <v>1</v>
-      </c>
-      <c r="H26" s="25" t="s">
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25">
-        <v>2</v>
-      </c>
-      <c r="B27" s="25" t="s">
+      <c r="A27" s="8">
+        <v>2</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="8">
         <v>123456</v>
       </c>
-      <c r="E27" s="25">
-        <v>2</v>
-      </c>
-      <c r="G27" s="25">
-        <v>2</v>
-      </c>
-      <c r="H27" s="25" t="s">
+      <c r="E27" s="8">
+        <v>2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
+      <c r="H27" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1037,36 +1058,38 @@
     <mergeCell ref="A15:E15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1"/>
-    <hyperlink ref="C27" r:id="rId2"/>
-    <hyperlink ref="C17" r:id="rId3"/>
-    <hyperlink ref="C18" r:id="rId4"/>
+    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="18.28515625" style="1"/>
+    <col min="1" max="2" width="18.28515625" style="1"/>
+    <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="18.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1092,7 +1115,7 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="10" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="3">
@@ -1107,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="3">
         <v>123456</v>
@@ -1119,17 +1142,34 @@
         <v>48</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3">
+        <v>123456</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1158,30 +1198,62 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="4">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="29">
+        <v>43670.75</v>
+      </c>
+      <c r="E10" s="29">
+        <v>43632.788194444445</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="29">
+        <v>43671.75</v>
+      </c>
+      <c r="E11" s="29">
+        <v>43632.788194444445</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="28"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1207,75 +1279,64 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>3</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="20"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="18"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-    </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{97B9D50D-13B9-4898-93D9-A5ABF4177BEC}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/sprint-1-bd/gufos/modelagem.xlsx
+++ b/sprint-1-bd/gufos/modelagem.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF64D354-8B26-40F8-8A2A-6121ADF9CBA0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="gufos" sheetId="1" r:id="rId1"/>
-    <sheet name="svigufo" sheetId="2" r:id="rId2"/>
+    <sheet name="gufos-v1" sheetId="1" r:id="rId1"/>
+    <sheet name="gufos-v2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -200,7 +199,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -389,6 +388,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,9 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -726,7 +725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -748,15 +747,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18"/>
-      <c r="E1" s="14" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="E1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="15"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -827,15 +826,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -907,13 +906,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -967,17 +966,17 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="G24" s="11" t="s">
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="G24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
@@ -1058,21 +1057,21 @@
     <mergeCell ref="A15:E15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C27" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C26" r:id="rId1"/>
+    <hyperlink ref="C27" r:id="rId2"/>
+    <hyperlink ref="C17" r:id="rId3"/>
+    <hyperlink ref="C18" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="A8" sqref="A8:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,13 +1082,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1160,16 +1159,16 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
@@ -1207,10 +1206,10 @@
       <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="11">
         <v>43670.75</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="11">
         <v>43632.788194444445</v>
       </c>
       <c r="F10" s="4">
@@ -1233,10 +1232,10 @@
       <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="11">
         <v>43671.75</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="11">
         <v>43632.788194444445</v>
       </c>
       <c r="F11" s="4">
@@ -1250,10 +1249,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="29"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1288,10 +1287,10 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="19"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
@@ -1333,9 +1332,9 @@
     <mergeCell ref="A20:B20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{97B9D50D-13B9-4898-93D9-A5ABF4177BEC}"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/sprint-1-bd/gufos/modelagem.xlsx
+++ b/sprint-1-bd/gufos/modelagem.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
-    <sheet name="gufos-v1" sheetId="1" r:id="rId1"/>
-    <sheet name="gufos-v2" sheetId="2" r:id="rId2"/>
+    <sheet name="gufos-v2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,62 +19,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
-  <si>
-    <t>Albuns</t>
-  </si>
-  <si>
-    <t>IdBanda</t>
-  </si>
-  <si>
-    <t>IdAlbum</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>DataLancamento</t>
-  </si>
-  <si>
     <t>Localizacao</t>
   </si>
   <si>
-    <t>Angra</t>
-  </si>
-  <si>
-    <t>Shaman</t>
-  </si>
-  <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>Pop</t>
-  </si>
-  <si>
-    <t>QtdMinutos</t>
-  </si>
-  <si>
     <t>Usuarios</t>
   </si>
   <si>
-    <t>Permissoes</t>
-  </si>
-  <si>
-    <t>IdPermissao</t>
-  </si>
-  <si>
     <t>Descricao</t>
   </si>
   <si>
     <t>Administrador</t>
   </si>
   <si>
-    <t>Comum</t>
-  </si>
-  <si>
     <t>IdUsuario</t>
   </si>
   <si>
@@ -85,55 +45,13 @@
     <t>Senha</t>
   </si>
   <si>
-    <t>Holy Land</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>admin@admin.com</t>
   </si>
   <si>
-    <t>MDNA</t>
-  </si>
-  <si>
-    <t>EUA</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>cliente@cliente.com</t>
-  </si>
-  <si>
-    <t>Artistas</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
     <t>Ativo</t>
   </si>
   <si>
-    <t>Estilos</t>
-  </si>
-  <si>
-    <t>IdEstilo</t>
-  </si>
-  <si>
-    <t>IdArtista</t>
-  </si>
-  <si>
     <t>Permissao</t>
-  </si>
-  <si>
-    <t>Artista</t>
-  </si>
-  <si>
-    <t>artista@artista.com</t>
   </si>
   <si>
     <t>Eventos</t>
@@ -217,7 +135,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,24 +187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,7 +256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,33 +273,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,22 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,352 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="E1" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1996</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4">
-        <v>57</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2012</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="4">
-        <v>75</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>2</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="6">
-        <v>123456</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="G24" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
-        <v>1</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="8">
-        <v>123456</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
-        <v>2</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="8">
-        <v>123456</v>
-      </c>
-      <c r="E27" s="8">
-        <v>2</v>
-      </c>
-      <c r="G27" s="8">
-        <v>2</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A15:E15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C26" r:id="rId1"/>
-    <hyperlink ref="C27" r:id="rId2"/>
-    <hyperlink ref="C17" r:id="rId3"/>
-    <hyperlink ref="C18" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:H11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,29 +604,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="16"/>
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1112,16 +634,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>123456</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1129,16 +651,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="3">
         <v>123456</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1146,54 +668,54 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D5" s="3">
         <v>123456</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="26"/>
+      <c r="A8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1201,22 +723,22 @@
         <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="11">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7">
         <v>43670.75</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>43632.788194444445</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
@@ -1227,39 +749,39 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="11">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7">
         <v>43671.75</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>43632.788194444445</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H11" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="29"/>
+      <c r="A14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1267,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,21 +805,21 @@
         <v>3</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="19"/>
+      <c r="A20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
